--- a/data/data/Role&Scene.xlsx
+++ b/data/data/Role&Scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tScene" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
   <si>
     <t>场景编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,10 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0,6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Attack1.anim</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,6 +260,58 @@
   </si>
   <si>
     <t>Back.anim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword and shield slash.anim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword and shield slash (3).anim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword and shield slash (4).anim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Appearence/Player/Paladin/Anims</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Appearence/Player/Paladin/Prefabs/Paladin_Full.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
@@ -631,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -645,21 +689,21 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -676,24 +720,24 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -707,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -718,11 +762,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -745,7 +789,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -772,7 +816,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -784,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -795,10 +839,21 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -810,11 +865,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -835,16 +890,16 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -877,7 +932,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -909,13 +964,30 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="s">
-        <v>33</v>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -927,11 +999,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -951,25 +1023,25 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1008,7 +1080,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1017,13 +1089,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1040,22 +1112,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1063,22 +1135,22 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>1.2</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1086,22 +1158,22 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>1.3</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1109,22 +1181,22 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>1.4</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1132,22 +1204,22 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10">
         <v>1.5</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1155,19 +1227,19 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>1.6</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1175,16 +1247,82 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
